--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae0f26d882ae6247/Dokumen/UiPath/RE_Automate_RPA_Challenge/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{911C3931-CAE5-4AA3-BC23-12470C3DE93D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFEB84FB-6A15-465D-9433-4A962A356CAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -183,10 +183,16 @@
     <t>Data\Input\DateTime.txt</t>
   </si>
   <si>
-    <t>C:\Users\mishr\OneDrive\Dokumen\UiPath\RE_Automate_RPA_Challenge\Data\Input\challenge.xlsx</t>
-  </si>
-  <si>
     <t>DelegatorExcelPath</t>
+  </si>
+  <si>
+    <t>Screenshots</t>
+  </si>
+  <si>
+    <t>Data\Input\challenge.xlsx</t>
+  </si>
+  <si>
+    <t>Final Screenshot\Final</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -658,13 +664,20 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
